--- a/public/import/weekly_template_Result (RSH FL ).xlsx
+++ b/public/import/weekly_template_Result (RSH FL ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -53,11 +53,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,10 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +398,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +430,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -432,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>90360184</v>
+        <v>190408677</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -440,7 +447,7 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -449,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>7680616</v>
+        <v>16184738</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -457,7 +464,7 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -466,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>1952585</v>
+        <v>4305190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,16 +481,16 @@
         <v>2022</v>
       </c>
       <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>15</v>
+      <c r="E5" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -491,16 +498,16 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>13</v>
+      <c r="E6" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
